--- a/★User_manual.xlsx
+++ b/★User_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxuan-cao/Desktop/★Image_resize_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B107D516-41A0-F54C-9ECF-95F5C06BC12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85395762-09E0-574A-809A-A2BA401DE5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1460" windowWidth="29740" windowHeight="17360" xr2:uid="{978104CD-E69B-8B47-B746-280926B41D72}"/>
+    <workbookView xWindow="500" yWindow="840" windowWidth="29740" windowHeight="17360" xr2:uid="{978104CD-E69B-8B47-B746-280926B41D72}"/>
   </bookViews>
   <sheets>
     <sheet name="おさらい" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="133">
   <si>
     <t>画像リサイズツール</t>
     <rPh sb="0" eb="2">
@@ -326,9 +326,6 @@
     <t>/bin/bash -c "$(curl -fsSL https://raw.githubusercontent.com/Homebrew/install/HEAD/install.sh)"</t>
   </si>
   <si>
-    <t>brew install python@3.9</t>
-  </si>
-  <si>
     <t>インストール後、バージョン確認</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -367,10 +364,6 @@
     <rPh sb="0" eb="2">
       <t>コウシキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Python3.9.8をダウンロードする</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -413,10 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Python 3.9をダウンロードしてインストールします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>説明：必要なフォルダ内の _starter.sh を実行し、指示通り操作すると、整った画像が取得できます。</t>
     <rPh sb="3" eb="5">
       <t>ヒツヨウ</t>
@@ -477,10 +466,6 @@
     <rPh sb="33" eb="35">
       <t>シュツル</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>zsh: permission denied: 権限なし　→　1_Authorization.shを実行</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -774,12 +759,96 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>bash_x000B_rm -rf venv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ls /Users/yuxuan-cao/Desktop/★Image_resize_tools/venv/bin/python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd /Users/yuxuan-cao/Desktop/★Image_resize_tools</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python3 -m venv venv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ls venv/bin/python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>source venv/bin/activate
+pip install pillow numpy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pip install -r requirements.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_starter.shを実行する</t>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１、zsh: permission denied: 権限なし　→　1_Authorization.shを実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>➡︎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">２、text/Users/yuxuan-cao/Desktop/★Image_resize_tools/venv/bin/python: No such file or directory
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>失敗しました。
+★Image_resize_tools/venv/bin/pythonが見つからないか、存在しません。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brew install python@3.13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python 3.13をダウンロードしてインストールします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Python3.13をダウンロードする</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -825,8 +894,20 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Apple Color Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,8 +920,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -974,6 +1061,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -983,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,6 +1248,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,6 +1275,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1101,20 +1311,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1458,11 +1740,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE60BE7-F59D-464F-A1CD-5AC395AA67C3}">
-  <dimension ref="B1:BZ496"/>
+  <dimension ref="A1:BZ496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K22" sqref="K22"/>
+      <pane xSplit="6" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1483,10 +1765,10 @@
     <col min="38" max="38" width="9.28515625" customWidth="1"/>
     <col min="39" max="40" width="15" customWidth="1"/>
     <col min="41" max="42" width="20.7109375" customWidth="1"/>
-    <col min="45" max="46" width="15" customWidth="1"/>
-    <col min="47" max="48" width="20.7109375" customWidth="1"/>
-    <col min="51" max="52" width="15" customWidth="1"/>
-    <col min="53" max="54" width="20.7109375" customWidth="1"/>
+    <col min="45" max="46" width="15" style="24" customWidth="1"/>
+    <col min="47" max="48" width="20.7109375" style="24" customWidth="1"/>
+    <col min="51" max="52" width="15" style="24" customWidth="1"/>
+    <col min="53" max="54" width="20.7109375" style="24" customWidth="1"/>
     <col min="57" max="58" width="15" customWidth="1"/>
     <col min="59" max="60" width="20.7109375" customWidth="1"/>
     <col min="63" max="64" width="15" customWidth="1"/>
@@ -1499,356 +1781,356 @@
   <sheetData>
     <row r="1" spans="2:78">
       <c r="F1" s="4"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="O1" s="24" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="O1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="26"/>
-      <c r="U1" s="24" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="28"/>
+      <c r="U1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26"/>
-      <c r="AA1" s="24" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="28"/>
+      <c r="AA1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="26"/>
-      <c r="AG1" s="24" t="s">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="28"/>
+      <c r="AG1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="28"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="28"/>
+      <c r="AS1" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="48"/>
+      <c r="AY1" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
+      <c r="BB1" s="48"/>
+      <c r="BE1" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="26"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="24" t="s">
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="28"/>
+      <c r="BK1" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="26"/>
-      <c r="AS1" s="24" t="s">
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="28"/>
+      <c r="BQ1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="26"/>
-      <c r="AY1" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="26"/>
-      <c r="BE1" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="26"/>
-      <c r="BK1" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL1" s="25"/>
-      <c r="BM1" s="25"/>
-      <c r="BN1" s="26"/>
-      <c r="BQ1" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="BR1" s="25"/>
-      <c r="BS1" s="25"/>
-      <c r="BT1" s="26"/>
-      <c r="BW1" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="BX1" s="25"/>
-      <c r="BY1" s="25"/>
-      <c r="BZ1" s="26"/>
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="28"/>
+      <c r="BW1" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX1" s="27"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="28"/>
     </row>
     <row r="2" spans="2:78" ht="21" thickBot="1">
       <c r="F2" s="4"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="29"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="29"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="31"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="29"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="29"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="29"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="29"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="28"/>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="29"/>
-      <c r="BQ2" s="27"/>
-      <c r="BR2" s="28"/>
-      <c r="BS2" s="28"/>
-      <c r="BT2" s="29"/>
-      <c r="BW2" s="27"/>
-      <c r="BX2" s="28"/>
-      <c r="BY2" s="28"/>
-      <c r="BZ2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="31"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="51"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="51"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="31"/>
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="30"/>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="31"/>
+      <c r="BQ2" s="29"/>
+      <c r="BR2" s="30"/>
+      <c r="BS2" s="30"/>
+      <c r="BT2" s="31"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="31"/>
     </row>
     <row r="3" spans="2:78">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:78" ht="21" thickBot="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="4"/>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="O4" s="23" t="s">
+      <c r="L4" s="25"/>
+      <c r="O4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23" t="s">
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="U4" s="23" t="s">
+      <c r="R4" s="25"/>
+      <c r="U4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23" t="s">
+      <c r="V4" s="25"/>
+      <c r="W4" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="23"/>
-      <c r="AA4" s="23" t="s">
+      <c r="X4" s="25"/>
+      <c r="AA4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23" t="s">
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="23"/>
-      <c r="AG4" s="23" t="s">
+      <c r="AD4" s="25"/>
+      <c r="AG4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ4" s="23"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ4" s="25"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="23" t="s">
+      <c r="AM4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23" t="s">
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AP4" s="23"/>
-      <c r="AS4" s="23" t="s">
+      <c r="AP4" s="25"/>
+      <c r="AS4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV4" s="23"/>
-      <c r="AY4" s="23" t="s">
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV4" s="34"/>
+      <c r="AY4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23" t="s">
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB4" s="34"/>
+      <c r="BE4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF4" s="25"/>
+      <c r="BG4" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH4" s="25"/>
+      <c r="BK4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="BN4" s="25"/>
+      <c r="BQ4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR4" s="25"/>
+      <c r="BS4" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="BB4" s="23"/>
-      <c r="BE4" s="23" t="s">
+      <c r="BT4" s="25"/>
+      <c r="BW4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="BF4" s="23"/>
-      <c r="BG4" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH4" s="23"/>
-      <c r="BK4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="BL4" s="23"/>
-      <c r="BM4" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN4" s="23"/>
-      <c r="BQ4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR4" s="23"/>
-      <c r="BS4" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="BT4" s="23"/>
-      <c r="BW4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="BX4" s="23"/>
-      <c r="BY4" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="BZ4" s="23"/>
+      <c r="BX4" s="25"/>
+      <c r="BY4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="BZ4" s="25"/>
     </row>
     <row r="5" spans="2:78">
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:78">
       <c r="F6" s="4"/>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="23"/>
-      <c r="O6" s="23" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="O6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="23"/>
-      <c r="U6" s="23" t="s">
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="25"/>
+      <c r="U6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23" t="s">
+      <c r="V6" s="25"/>
+      <c r="W6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="X6" s="23"/>
-      <c r="AA6" s="23" t="s">
+      <c r="X6" s="25"/>
+      <c r="AA6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23" t="s">
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AD6" s="23"/>
-      <c r="AG6" s="23" t="s">
+      <c r="AD6" s="25"/>
+      <c r="AG6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ6" s="23"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ6" s="25"/>
       <c r="AL6" s="2"/>
-      <c r="AM6" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP6" s="23"/>
-      <c r="AS6" s="23" t="s">
+      <c r="AM6" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP6" s="25"/>
+      <c r="AS6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV6" s="23"/>
-      <c r="AY6" s="23" t="s">
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV6" s="34"/>
+      <c r="AY6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AZ6" s="23"/>
-      <c r="BA6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB6" s="23"/>
-      <c r="BE6" s="23" t="s">
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB6" s="34"/>
+      <c r="BE6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="BF6" s="23"/>
-      <c r="BG6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH6" s="23"/>
-      <c r="BK6" s="23" t="s">
+      <c r="BF6" s="25"/>
+      <c r="BG6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH6" s="25"/>
+      <c r="BK6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="BL6" s="23"/>
-      <c r="BM6" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN6" s="23"/>
-      <c r="BQ6" s="23" t="s">
+      <c r="BL6" s="25"/>
+      <c r="BM6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN6" s="25"/>
+      <c r="BQ6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="BR6" s="23"/>
-      <c r="BS6" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="BT6" s="23"/>
-      <c r="BW6" s="23" t="s">
+      <c r="BR6" s="25"/>
+      <c r="BS6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT6" s="25"/>
+      <c r="BW6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="BX6" s="23"/>
-      <c r="BY6" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="BZ6" s="23"/>
+      <c r="BX6" s="25"/>
+      <c r="BY6" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="BZ6" s="25"/>
     </row>
     <row r="7" spans="2:78">
-      <c r="B7" s="39" t="str">
+      <c r="B7" s="32" t="str">
         <f>HYPERLINK("#J1", "１、施設外観リサイズ・リネーム")</f>
         <v>１、施設外観リサイズ・リネーム</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:78">
@@ -1857,112 +2139,112 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="25"/>
+      <c r="K8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="O8" s="23" t="s">
+      <c r="L8" s="25"/>
+      <c r="O8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23" t="s">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="U8" s="23" t="s">
+      <c r="R8" s="25"/>
+      <c r="U8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23" t="s">
+      <c r="V8" s="25"/>
+      <c r="W8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="23"/>
-      <c r="AA8" s="23" t="s">
+      <c r="X8" s="25"/>
+      <c r="AA8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23" t="s">
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AD8" s="23"/>
-      <c r="AG8" s="23" t="s">
+      <c r="AD8" s="25"/>
+      <c r="AG8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ8" s="23"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ8" s="25"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="23" t="s">
+      <c r="AM8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP8" s="23"/>
-      <c r="AS8" s="23" t="s">
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP8" s="25"/>
+      <c r="AS8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV8" s="23"/>
-      <c r="AY8" s="23" t="s">
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV8" s="34"/>
+      <c r="AY8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AZ8" s="23"/>
-      <c r="BA8" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB8" s="23"/>
-      <c r="BE8" s="23" t="s">
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB8" s="34"/>
+      <c r="BE8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BF8" s="23"/>
-      <c r="BG8" s="23" t="s">
+      <c r="BF8" s="25"/>
+      <c r="BG8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="BH8" s="23"/>
-      <c r="BK8" s="23" t="s">
+      <c r="BH8" s="25"/>
+      <c r="BK8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BL8" s="23"/>
-      <c r="BM8" s="23" t="s">
+      <c r="BL8" s="25"/>
+      <c r="BM8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="BN8" s="23"/>
-      <c r="BQ8" s="23" t="s">
+      <c r="BN8" s="25"/>
+      <c r="BQ8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BR8" s="23"/>
-      <c r="BS8" s="23" t="s">
+      <c r="BR8" s="25"/>
+      <c r="BS8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="BT8" s="23"/>
-      <c r="BW8" s="23" t="s">
+      <c r="BT8" s="25"/>
+      <c r="BW8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BX8" s="23"/>
-      <c r="BY8" s="23" t="s">
+      <c r="BX8" s="25"/>
+      <c r="BY8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="BZ8" s="23"/>
+      <c r="BZ8" s="25"/>
     </row>
     <row r="9" spans="2:78">
-      <c r="B9" s="39" t="str">
+      <c r="B9" s="32" t="str">
         <f>HYPERLINK("#Q1", "２、会場画像リサイズ・リネーム")</f>
         <v>２、会場画像リサイズ・リネーム</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:78">
@@ -1971,97 +2253,97 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="4"/>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="O10" s="23" t="s">
+      <c r="L10" s="25"/>
+      <c r="O10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23" t="s">
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="23"/>
-      <c r="U10" s="23" t="s">
+      <c r="R10" s="25"/>
+      <c r="U10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23" t="s">
+      <c r="V10" s="25"/>
+      <c r="W10" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="X10" s="23"/>
-      <c r="AA10" s="23" t="s">
+      <c r="X10" s="25"/>
+      <c r="AA10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23" t="s">
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AD10" s="23"/>
-      <c r="AG10" s="23" t="s">
+      <c r="AD10" s="25"/>
+      <c r="AG10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23" t="s">
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AJ10" s="23"/>
-      <c r="AS10" s="23" t="s">
+      <c r="AJ10" s="25"/>
+      <c r="AS10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AT10" s="23"/>
-      <c r="AU10" s="23" t="s">
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="AV10" s="23"/>
-      <c r="AY10" s="23" t="s">
+      <c r="AV10" s="34"/>
+      <c r="AY10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AZ10" s="23"/>
-      <c r="BA10" s="23" t="s">
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="BB10" s="23"/>
-      <c r="BK10" s="23"/>
-      <c r="BL10" s="23"/>
-      <c r="BM10" s="23"/>
-      <c r="BN10" s="23"/>
-      <c r="BQ10" s="23"/>
-      <c r="BR10" s="23"/>
-      <c r="BS10" s="23"/>
-      <c r="BT10" s="23"/>
-      <c r="BW10" s="23"/>
-      <c r="BX10" s="23"/>
-      <c r="BY10" s="23"/>
-      <c r="BZ10" s="23"/>
+      <c r="BB10" s="34"/>
+      <c r="BK10" s="25"/>
+      <c r="BL10" s="25"/>
+      <c r="BM10" s="25"/>
+      <c r="BN10" s="25"/>
+      <c r="BQ10" s="25"/>
+      <c r="BR10" s="25"/>
+      <c r="BS10" s="25"/>
+      <c r="BT10" s="25"/>
+      <c r="BW10" s="25"/>
+      <c r="BX10" s="25"/>
+      <c r="BY10" s="25"/>
+      <c r="BZ10" s="25"/>
     </row>
     <row r="11" spans="2:78" ht="24" customHeight="1">
-      <c r="B11" s="39" t="str">
+      <c r="B11" s="32" t="str">
         <f>HYPERLINK("#W1", "３、フロア図リサイズ・リネーム")</f>
         <v>３、フロア図リサイズ・リネーム</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="4"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
       <c r="AL11" s="2"/>
-      <c r="AM11" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP11" s="23"/>
+      <c r="AM11" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP11" s="25"/>
     </row>
     <row r="12" spans="2:78">
       <c r="B12" s="1"/>
@@ -2069,97 +2351,97 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="4"/>
-      <c r="U12" s="23" t="s">
+      <c r="U12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23" t="s">
+      <c r="V12" s="25"/>
+      <c r="W12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="X12" s="23"/>
-      <c r="AA12" s="23" t="s">
+      <c r="X12" s="25"/>
+      <c r="AA12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23" t="s">
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AD12" s="23"/>
-      <c r="BK12" s="23"/>
-      <c r="BL12" s="23"/>
-      <c r="BM12" s="23"/>
-      <c r="BN12" s="23"/>
-      <c r="BQ12" s="23"/>
-      <c r="BR12" s="23"/>
-      <c r="BS12" s="23"/>
-      <c r="BT12" s="23"/>
-      <c r="BW12" s="23"/>
-      <c r="BX12" s="23"/>
-      <c r="BY12" s="23"/>
-      <c r="BZ12" s="23"/>
+      <c r="AD12" s="25"/>
+      <c r="BK12" s="25"/>
+      <c r="BL12" s="25"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
+      <c r="BQ12" s="25"/>
+      <c r="BR12" s="25"/>
+      <c r="BS12" s="25"/>
+      <c r="BT12" s="25"/>
+      <c r="BW12" s="25"/>
+      <c r="BX12" s="25"/>
+      <c r="BY12" s="25"/>
+      <c r="BZ12" s="25"/>
     </row>
     <row r="13" spans="2:78">
-      <c r="B13" s="39" t="str">
+      <c r="B13" s="32" t="str">
         <f>HYPERLINK("#AC1", "４、レイアウト図リサイズ・リネーム")</f>
         <v>４、レイアウト図リサイズ・リネーム</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="4"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
       <c r="AL13" s="2"/>
-      <c r="AM13" s="23" t="s">
+      <c r="AM13" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AN13" s="23"/>
-      <c r="AO13" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP13" s="23"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP13" s="25"/>
     </row>
     <row r="14" spans="2:78">
       <c r="F14" s="4"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="AA14" s="23" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="AA14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AB14" s="23"/>
+      <c r="AB14" s="25"/>
       <c r="AC14" t="s">
         <v>10</v>
       </c>
       <c r="AD14" t="s">
         <v>15</v>
       </c>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
-      <c r="BE14" s="23"/>
-      <c r="BF14" s="23"/>
-      <c r="BK14" s="23"/>
-      <c r="BL14" s="23"/>
-      <c r="BQ14" s="23"/>
-      <c r="BR14" s="23"/>
-      <c r="BW14" s="23"/>
-      <c r="BX14" s="23"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="34"/>
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
+      <c r="BK14" s="25"/>
+      <c r="BL14" s="25"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="25"/>
+      <c r="BW14" s="25"/>
+      <c r="BX14" s="25"/>
     </row>
     <row r="15" spans="2:78">
-      <c r="B15" s="39" t="str">
+      <c r="B15" s="32" t="str">
         <f>HYPERLINK("#AI1", "５、アクセスマップリサイズ・リネーム")</f>
         <v>５、アクセスマップリサイズ・リネーム</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="4"/>
       <c r="AC15" t="s">
         <v>16</v>
@@ -2177,23 +2459,23 @@
         <v>29</v>
       </c>
       <c r="AL16" s="2"/>
-      <c r="AM16" s="23" t="s">
+      <c r="AM16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23" t="s">
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AP16" s="23"/>
-    </row>
-    <row r="17" spans="2:42">
-      <c r="B17" s="39" t="str">
+      <c r="AP16" s="25"/>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="B17" s="32" t="str">
         <f>HYPERLINK("#Ao1", "６、商品画像リサイズ・リネーム")</f>
         <v>６、商品画像リサイズ・リネーム</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="4"/>
       <c r="AC17" t="s">
         <v>18</v>
@@ -2202,7 +2484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:42">
+    <row r="18" spans="1:42">
       <c r="F18" s="4"/>
       <c r="AC18" t="s">
         <v>19</v>
@@ -2211,23 +2493,24 @@
         <v>31</v>
       </c>
       <c r="AL18" s="2"/>
-      <c r="AM18" s="23" t="s">
+      <c r="AM18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="23" t="s">
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AP18" s="23"/>
-    </row>
-    <row r="19" spans="2:42">
-      <c r="B19" s="39" t="str">
+      <c r="AP18" s="25"/>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="A19" s="24"/>
+      <c r="B19" s="44" t="str">
         <f>HYPERLINK("#Au1", "７、ルート案内図リサイズ・リネーム")</f>
         <v>７、ルート案内図リサイズ・リネーム</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="4"/>
       <c r="AC19" t="s">
         <v>20</v>
@@ -2236,7 +2519,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:42">
+    <row r="20" spans="1:42">
       <c r="F20" s="4"/>
       <c r="AC20" t="s">
         <v>21</v>
@@ -2245,14 +2528,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:42">
-      <c r="B21" s="39" t="str">
+    <row r="21" spans="1:42">
+      <c r="A21" s="24"/>
+      <c r="B21" s="44" t="str">
         <f>HYPERLINK("#BA1", "８、出入り口リサイズ・リネーム")</f>
         <v>８、出入り口リサイズ・リネーム</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="4"/>
       <c r="AC21" t="s">
         <v>22</v>
@@ -2261,7 +2545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:42">
+    <row r="22" spans="1:42">
       <c r="F22" s="4"/>
       <c r="AC22" t="s">
         <v>23</v>
@@ -2270,14 +2554,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:42">
-      <c r="B23" s="39" t="str">
+    <row r="23" spans="1:42">
+      <c r="B23" s="32" t="str">
         <f>HYPERLINK("#BG1", "９、900x600（3：2）画像リサイズ")</f>
         <v>９、900x600（3：2）画像リサイズ</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="4"/>
       <c r="AC23" t="s">
         <v>24</v>
@@ -2286,7 +2570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:42">
+    <row r="24" spans="1:42">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2299,14 +2583,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:42">
-      <c r="B25" s="39" t="str">
+    <row r="25" spans="1:42">
+      <c r="B25" s="32" t="str">
         <f>HYPERLINK("#BM1", "１０、960x540（16：9）画像リサイズ")</f>
         <v>１０、960x540（16：9）画像リサイズ</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="4"/>
       <c r="AC25" t="s">
         <v>26</v>
@@ -2315,7 +2599,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:42">
+    <row r="26" spans="1:42">
       <c r="F26" s="4"/>
       <c r="AC26" t="s">
         <v>27</v>
@@ -2324,59 +2608,59 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:42">
-      <c r="B27" s="39" t="str">
+    <row r="27" spans="1:42">
+      <c r="B27" s="32" t="str">
         <f>HYPERLINK("#BS1", "１１、960x720（4：3）画像リサイズ")</f>
         <v>１１、960x720（4：3）画像リサイズ</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="2:42">
+    <row r="28" spans="1:42">
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="2:42">
-      <c r="B29" s="39" t="str">
+    <row r="29" spans="1:42">
+      <c r="B29" s="32" t="str">
         <f>HYPERLINK("#BY1", "１２、（1：1）画像リサイズ")</f>
         <v>１２、（1：1）画像リサイズ</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="2:42">
+    <row r="30" spans="1:42">
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="2:42">
+    <row r="31" spans="1:42">
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="2:42" ht="21" thickBot="1">
+    <row r="32" spans="1:42" ht="21" thickBot="1">
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1">
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6">
@@ -3764,56 +4048,82 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BW1:BZ2"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="BW6:BX6"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="BW8:BX8"/>
-    <mergeCell ref="BY8:BZ8"/>
-    <mergeCell ref="BW10:BX10"/>
-    <mergeCell ref="BY10:BZ10"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="U1:X2"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BQ14:BR14"/>
+    <mergeCell ref="AY14:AZ14"/>
+    <mergeCell ref="BK1:BN2"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="BM8:BN8"/>
+    <mergeCell ref="BQ1:BT2"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BQ8:BR8"/>
+    <mergeCell ref="BS8:BT8"/>
+    <mergeCell ref="BQ10:BR10"/>
+    <mergeCell ref="BS10:BT10"/>
+    <mergeCell ref="AY1:BB2"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="AS1:AV2"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AG1:AJ2"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="B33:E35"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO13:AP13"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="BE14:BF14"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO16:AP16"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AO18:AP18"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="BK10:BL10"/>
+    <mergeCell ref="BM10:BN10"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BM12:BN12"/>
+    <mergeCell ref="BK14:BL14"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AY10:AZ10"/>
+    <mergeCell ref="BA10:BB10"/>
     <mergeCell ref="BE1:BH2"/>
     <mergeCell ref="BE4:BF4"/>
     <mergeCell ref="BG4:BH4"/>
@@ -3838,82 +4148,56 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="BK10:BL10"/>
-    <mergeCell ref="BM10:BN10"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BM12:BN12"/>
-    <mergeCell ref="BK14:BL14"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AU10:AV10"/>
-    <mergeCell ref="AY10:AZ10"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="B33:E35"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="BE14:BF14"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AO16:AP16"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AO18:AP18"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AG1:AJ2"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="AS1:AV2"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="BQ12:BR12"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BQ14:BR14"/>
-    <mergeCell ref="AY14:AZ14"/>
-    <mergeCell ref="BK1:BN2"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BM6:BN6"/>
-    <mergeCell ref="BK8:BL8"/>
-    <mergeCell ref="BM8:BN8"/>
-    <mergeCell ref="BQ1:BT2"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BQ6:BR6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BQ8:BR8"/>
-    <mergeCell ref="BS8:BT8"/>
-    <mergeCell ref="BQ10:BR10"/>
-    <mergeCell ref="BS10:BT10"/>
-    <mergeCell ref="AY1:BB2"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="U1:X2"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BW1:BZ2"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="BW8:BX8"/>
+    <mergeCell ref="BY8:BZ8"/>
+    <mergeCell ref="BW10:BX10"/>
+    <mergeCell ref="BY10:BZ10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3922,10 +4206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA8DD78-188E-C04B-ABEE-E10031103364}">
-  <dimension ref="C2:O100"/>
+  <dimension ref="C2:Q130"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="86" workbookViewId="0">
-      <selection activeCell="M86" sqref="M86"/>
+    <sheetView topLeftCell="A16" zoomScale="86" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3940,94 +4224,94 @@
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="3:15">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
       <c r="N4" s="5" t="s">
         <v>59</v>
       </c>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="3:15">
-      <c r="C5" s="42"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="43"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="56"/>
       <c r="N5" s="5"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="3:15">
-      <c r="C6" s="42"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="56"/>
       <c r="N6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="3:15" ht="21" thickBot="1">
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
       <c r="N7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="3:15">
       <c r="N8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="3:15">
-      <c r="C9" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
       <c r="N9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="3:15">
       <c r="N10" s="7" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="3:15">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="N11" s="6"/>
       <c r="O11" s="4"/>
     </row>
@@ -4044,79 +4328,79 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="3:15">
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
       <c r="N14" s="5"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="3:15">
-      <c r="C15" s="42"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="43"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="56"/>
       <c r="N15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="42"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="43"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="56"/>
       <c r="N16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="3:15" ht="21" thickBot="1">
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
       <c r="N17" s="5"/>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="3:15">
       <c r="N18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="3:15">
       <c r="N19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="3:15">
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="N20" s="7" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="O20" s="4"/>
     </row>
@@ -4129,50 +4413,50 @@
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="3:15">
-      <c r="C23" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="C23" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="N23" s="5"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="3:15">
-      <c r="C24" s="42"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="43"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="56"/>
       <c r="N24" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="3:15">
-      <c r="C25" s="42"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="43"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="56"/>
       <c r="N25" s="5"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="3:15" ht="21" thickBot="1">
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
       <c r="N26" s="6" t="s">
         <v>56</v>
       </c>
@@ -4183,29 +4467,29 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="3:15" ht="31" customHeight="1">
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
       <c r="N28" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="3:15">
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
       <c r="N29" s="7" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="O29" s="4"/>
     </row>
@@ -4215,32 +4499,32 @@
     </row>
     <row r="31" spans="3:15">
       <c r="N31" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="3:15">
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
       <c r="N32" s="5"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="3:15">
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
       <c r="N33" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O33" s="4"/>
     </row>
@@ -4255,158 +4539,158 @@
       <c r="O35" s="10"/>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
       <c r="N36" s="11"/>
     </row>
     <row r="37" spans="3:15">
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
       <c r="N37" s="11"/>
     </row>
     <row r="40" spans="3:15">
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
     </row>
     <row r="44" spans="3:15">
-      <c r="C44" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
+      <c r="C44" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
     </row>
     <row r="45" spans="3:15">
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
     </row>
     <row r="48" spans="3:15" ht="20" customHeight="1">
-      <c r="C48" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="C48" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
     </row>
     <row r="49" spans="3:9">
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
     </row>
     <row r="52" spans="3:9" ht="20" customHeight="1">
-      <c r="C52" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="41" t="s">
+      <c r="C52" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+    </row>
+    <row r="56" spans="3:9" ht="20" customHeight="1">
+      <c r="C56" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-    </row>
-    <row r="53" spans="3:9">
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-    </row>
-    <row r="56" spans="3:9" ht="20" customHeight="1">
-      <c r="C56" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-    </row>
-    <row r="57" spans="3:9">
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-    </row>
-    <row r="60" spans="3:9">
-      <c r="C60" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
     </row>
     <row r="61" spans="3:9">
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
     </row>
     <row r="64" spans="3:9">
-      <c r="C64" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
+      <c r="C64" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
     </row>
     <row r="65" spans="3:9">
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
     </row>
     <row r="66" spans="3:9">
       <c r="F66" s="15"/>
@@ -4421,199 +4705,442 @@
       <c r="I67" s="15"/>
     </row>
     <row r="68" spans="3:9">
-      <c r="C68" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
+      <c r="C68" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
     </row>
     <row r="69" spans="3:9">
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
     </row>
     <row r="72" spans="3:9">
-      <c r="C72" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
+      <c r="C72" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
     </row>
     <row r="73" spans="3:9">
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
     </row>
     <row r="74" spans="3:9" ht="21" thickBot="1"/>
     <row r="75" spans="3:9">
-      <c r="C75" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="26"/>
+      <c r="C75" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="28"/>
     </row>
     <row r="76" spans="3:9">
-      <c r="C76" s="42"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="43"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="56"/>
     </row>
     <row r="77" spans="3:9">
-      <c r="C77" s="42"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="43"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="56"/>
     </row>
     <row r="78" spans="3:9" ht="21" thickBot="1">
-      <c r="C78" s="27"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="31"/>
     </row>
     <row r="80" spans="3:9">
-      <c r="C80" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
+      <c r="C80" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
     </row>
     <row r="82" spans="3:9">
       <c r="D82" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="3:9">
       <c r="D83" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="3:9">
       <c r="D84" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="3:9" ht="21" thickBot="1"/>
     <row r="87" spans="3:9">
-      <c r="C87" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="26"/>
+      <c r="C87" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="28"/>
     </row>
     <row r="88" spans="3:9">
-      <c r="C88" s="42"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="43"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="56"/>
     </row>
     <row r="89" spans="3:9">
-      <c r="C89" s="42"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="43"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="56"/>
     </row>
     <row r="90" spans="3:9" ht="21" thickBot="1">
-      <c r="C90" s="27"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="31"/>
     </row>
     <row r="94" spans="3:9" ht="21" thickBot="1"/>
     <row r="95" spans="3:9">
-      <c r="C95" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="26"/>
+      <c r="C95" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="28"/>
     </row>
     <row r="96" spans="3:9">
-      <c r="C96" s="42"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="43"/>
-    </row>
-    <row r="97" spans="3:9">
-      <c r="C97" s="42"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="43"/>
-    </row>
-    <row r="98" spans="3:9" ht="21" thickBot="1">
-      <c r="C98" s="27"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="29"/>
-    </row>
-    <row r="100" spans="3:9">
-      <c r="C100" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-    </row>
+      <c r="C96" s="55"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="56"/>
+    </row>
+    <row r="97" spans="3:17">
+      <c r="C97" s="55"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="56"/>
+    </row>
+    <row r="98" spans="3:17" ht="21" thickBot="1">
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="31"/>
+    </row>
+    <row r="100" spans="3:17">
+      <c r="C100" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="54"/>
+    </row>
+    <row r="102" spans="3:17" ht="20" customHeight="1">
+      <c r="C102" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K102" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="L102" s="59"/>
+      <c r="M102" s="59"/>
+      <c r="N102" s="59"/>
+      <c r="O102" s="59"/>
+      <c r="P102" s="59"/>
+      <c r="Q102" s="60"/>
+    </row>
+    <row r="103" spans="3:17">
+      <c r="C103" s="68"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="69"/>
+      <c r="K103" s="61"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="62"/>
+      <c r="N103" s="62"/>
+      <c r="O103" s="62"/>
+      <c r="P103" s="62"/>
+      <c r="Q103" s="63"/>
+    </row>
+    <row r="104" spans="3:17">
+      <c r="C104" s="68"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="69"/>
+    </row>
+    <row r="105" spans="3:17">
+      <c r="C105" s="68"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="69"/>
+      <c r="K105" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="L105" s="59"/>
+      <c r="M105" s="59"/>
+      <c r="N105" s="59"/>
+      <c r="O105" s="59"/>
+      <c r="P105" s="59"/>
+      <c r="Q105" s="60"/>
+    </row>
+    <row r="106" spans="3:17">
+      <c r="C106" s="68"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="69"/>
+      <c r="K106" s="61"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="62"/>
+      <c r="O106" s="62"/>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="63"/>
+    </row>
+    <row r="107" spans="3:17">
+      <c r="C107" s="70"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="72"/>
+    </row>
+    <row r="108" spans="3:17" ht="39" customHeight="1">
+      <c r="K108" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="L108" s="59"/>
+      <c r="M108" s="59"/>
+      <c r="N108" s="59"/>
+      <c r="O108" s="59"/>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="60"/>
+    </row>
+    <row r="109" spans="3:17" ht="39" customHeight="1">
+      <c r="K109" s="61"/>
+      <c r="L109" s="62"/>
+      <c r="M109" s="62"/>
+      <c r="N109" s="62"/>
+      <c r="O109" s="62"/>
+      <c r="P109" s="62"/>
+      <c r="Q109" s="63"/>
+    </row>
+    <row r="111" spans="3:17" ht="44" customHeight="1">
+      <c r="K111" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="L111" s="59"/>
+      <c r="M111" s="59"/>
+      <c r="N111" s="59"/>
+      <c r="O111" s="59"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="60"/>
+    </row>
+    <row r="112" spans="3:17" ht="44" customHeight="1">
+      <c r="K112" s="61"/>
+      <c r="L112" s="62"/>
+      <c r="M112" s="62"/>
+      <c r="N112" s="62"/>
+      <c r="O112" s="62"/>
+      <c r="P112" s="62"/>
+      <c r="Q112" s="63"/>
+    </row>
+    <row r="114" spans="11:17" ht="46" customHeight="1">
+      <c r="K114" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="L114" s="59"/>
+      <c r="M114" s="59"/>
+      <c r="N114" s="59"/>
+      <c r="O114" s="59"/>
+      <c r="P114" s="59"/>
+      <c r="Q114" s="60"/>
+    </row>
+    <row r="115" spans="11:17" ht="46" customHeight="1">
+      <c r="K115" s="61"/>
+      <c r="L115" s="62"/>
+      <c r="M115" s="62"/>
+      <c r="N115" s="62"/>
+      <c r="O115" s="62"/>
+      <c r="P115" s="62"/>
+      <c r="Q115" s="63"/>
+    </row>
+    <row r="117" spans="11:17" ht="51" customHeight="1">
+      <c r="K117" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="L117" s="59"/>
+      <c r="M117" s="59"/>
+      <c r="N117" s="59"/>
+      <c r="O117" s="59"/>
+      <c r="P117" s="59"/>
+      <c r="Q117" s="60"/>
+    </row>
+    <row r="118" spans="11:17" ht="51" customHeight="1">
+      <c r="K118" s="61"/>
+      <c r="L118" s="62"/>
+      <c r="M118" s="62"/>
+      <c r="N118" s="62"/>
+      <c r="O118" s="62"/>
+      <c r="P118" s="62"/>
+      <c r="Q118" s="63"/>
+    </row>
+    <row r="120" spans="11:17" ht="47" customHeight="1">
+      <c r="K120" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="L120" s="59"/>
+      <c r="M120" s="59"/>
+      <c r="N120" s="59"/>
+      <c r="O120" s="59"/>
+      <c r="P120" s="59"/>
+      <c r="Q120" s="60"/>
+    </row>
+    <row r="121" spans="11:17" ht="47" customHeight="1">
+      <c r="K121" s="61"/>
+      <c r="L121" s="62"/>
+      <c r="M121" s="62"/>
+      <c r="N121" s="62"/>
+      <c r="O121" s="62"/>
+      <c r="P121" s="62"/>
+      <c r="Q121" s="63"/>
+    </row>
+    <row r="123" spans="11:17" ht="42" customHeight="1">
+      <c r="K123" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="L123" s="59"/>
+      <c r="M123" s="59"/>
+      <c r="N123" s="59"/>
+      <c r="O123" s="59"/>
+      <c r="P123" s="59"/>
+      <c r="Q123" s="60"/>
+    </row>
+    <row r="124" spans="11:17" ht="42" customHeight="1">
+      <c r="K124" s="61"/>
+      <c r="L124" s="62"/>
+      <c r="M124" s="62"/>
+      <c r="N124" s="62"/>
+      <c r="O124" s="62"/>
+      <c r="P124" s="62"/>
+      <c r="Q124" s="63"/>
+    </row>
+    <row r="126" spans="11:17" ht="44" customHeight="1"/>
+    <row r="127" spans="11:17" ht="44" customHeight="1"/>
+    <row r="129" ht="49" customHeight="1"/>
+    <row r="130" ht="49" customHeight="1"/>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="44">
+    <mergeCell ref="K117:Q118"/>
+    <mergeCell ref="K120:Q121"/>
+    <mergeCell ref="K123:Q124"/>
+    <mergeCell ref="C102:I107"/>
+    <mergeCell ref="K105:Q106"/>
+    <mergeCell ref="K111:Q112"/>
+    <mergeCell ref="K102:Q103"/>
+    <mergeCell ref="K108:Q109"/>
+    <mergeCell ref="K114:Q115"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I45"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:I57"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I49"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:I61"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:I69"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I65"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I41"/>
     <mergeCell ref="C100:I100"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C14:I17"/>
@@ -4630,25 +5157,6 @@
     <mergeCell ref="C87:I90"/>
     <mergeCell ref="F28:I29"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I41"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:I61"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:I69"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I65"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I45"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:I57"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4664,7 +5172,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4683,13 +5191,13 @@
     <row r="2" spans="1:4" s="21" customFormat="1" ht="21" thickBot="1">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/★User_manual.xlsx
+++ b/★User_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxuan-cao/Desktop/★Image_resize_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85395762-09E0-574A-809A-A2BA401DE5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397919EF-03B1-DB43-9ADA-FEDA737F13C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="840" windowWidth="29740" windowHeight="17360" xr2:uid="{978104CD-E69B-8B47-B746-280926B41D72}"/>
   </bookViews>
@@ -1178,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1257,6 +1257,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,65 +1278,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1350,53 +1398,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1743,8 +1773,8 @@
   <dimension ref="A1:BZ496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH22" sqref="AH22"/>
+      <pane xSplit="6" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV11" sqref="AV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1765,8 +1795,8 @@
     <col min="38" max="38" width="9.28515625" customWidth="1"/>
     <col min="39" max="40" width="15" customWidth="1"/>
     <col min="41" max="42" width="20.7109375" customWidth="1"/>
-    <col min="45" max="46" width="15" style="24" customWidth="1"/>
-    <col min="47" max="48" width="20.7109375" style="24" customWidth="1"/>
+    <col min="45" max="46" width="15" style="73" customWidth="1"/>
+    <col min="47" max="48" width="20.7109375" style="73" customWidth="1"/>
     <col min="51" max="52" width="15" style="24" customWidth="1"/>
     <col min="53" max="54" width="20.7109375" style="24" customWidth="1"/>
     <col min="57" max="58" width="15" customWidth="1"/>
@@ -1781,146 +1811,146 @@
   <sheetData>
     <row r="1" spans="2:78">
       <c r="F1" s="4"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="O1" s="26" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="O1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="28"/>
-      <c r="U1" s="26" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
+      <c r="U1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="28"/>
-      <c r="AA1" s="26" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="29"/>
+      <c r="AA1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="28"/>
-      <c r="AG1" s="26" t="s">
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="29"/>
+      <c r="AG1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="29"/>
       <c r="AL1" s="2"/>
-      <c r="AM1" s="26" t="s">
+      <c r="AM1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="28"/>
-      <c r="AS1" s="46" t="s">
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="29"/>
+      <c r="AS1" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="48"/>
-      <c r="AY1" s="46" t="s">
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="78"/>
+      <c r="AY1" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="48"/>
-      <c r="BE1" s="26" t="s">
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="35"/>
+      <c r="BE1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="28"/>
-      <c r="BK1" s="26" t="s">
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="29"/>
+      <c r="BK1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="27"/>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="28"/>
-      <c r="BQ1" s="26" t="s">
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="29"/>
+      <c r="BQ1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="28"/>
-      <c r="BW1" s="26" t="s">
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="29"/>
+      <c r="BW1" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="BX1" s="27"/>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="29"/>
     </row>
     <row r="2" spans="2:78" ht="21" thickBot="1">
       <c r="F2" s="4"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="31"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="31"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="32"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="32"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="32"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="31"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="51"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="51"/>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="31"/>
-      <c r="BK2" s="29"/>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="31"/>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="31"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="31"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="32"/>
+      <c r="AS2" s="79"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="81"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="38"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="32"/>
+      <c r="BK2" s="30"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="32"/>
+      <c r="BQ2" s="30"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="32"/>
+      <c r="BW2" s="30"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="32"/>
     </row>
     <row r="3" spans="2:78">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:78" ht="21" thickBot="1">
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="4"/>
       <c r="I4" s="25" t="s">
         <v>6</v>
@@ -1971,22 +2001,22 @@
         <v>49</v>
       </c>
       <c r="AP4" s="25"/>
-      <c r="AS4" s="34" t="s">
+      <c r="AS4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34" t="s">
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="AV4" s="34"/>
-      <c r="AY4" s="34" t="s">
+      <c r="AV4" s="82"/>
+      <c r="AY4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34" t="s">
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="BB4" s="34"/>
+      <c r="BB4" s="26"/>
       <c r="BE4" s="25" t="s">
         <v>6</v>
       </c>
@@ -2074,22 +2104,22 @@
         <v>83</v>
       </c>
       <c r="AP6" s="25"/>
-      <c r="AS6" s="34" t="s">
+      <c r="AS6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="34" t="s">
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="AV6" s="34"/>
-      <c r="AY6" s="34" t="s">
+      <c r="AV6" s="82"/>
+      <c r="AY6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="34" t="s">
+      <c r="AZ6" s="26"/>
+      <c r="BA6" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="BB6" s="34"/>
+      <c r="BB6" s="26"/>
       <c r="BE6" s="25" t="s">
         <v>3</v>
       </c>
@@ -2124,13 +2154,13 @@
       <c r="BZ6" s="25"/>
     </row>
     <row r="7" spans="2:78">
-      <c r="B7" s="32" t="str">
+      <c r="B7" s="48" t="str">
         <f>HYPERLINK("#J1", "１、施設外観リサイズ・リネーム")</f>
         <v>１、施設外観リサイズ・リネーム</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:78">
@@ -2188,22 +2218,22 @@
         <v>81</v>
       </c>
       <c r="AP8" s="25"/>
-      <c r="AS8" s="34" t="s">
+      <c r="AS8" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34" t="s">
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="AV8" s="34"/>
-      <c r="AY8" s="34" t="s">
+      <c r="AV8" s="82"/>
+      <c r="AY8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AZ8" s="34"/>
-      <c r="BA8" s="34" t="s">
+      <c r="AZ8" s="26"/>
+      <c r="BA8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="BB8" s="34"/>
+      <c r="BB8" s="26"/>
       <c r="BE8" s="25" t="s">
         <v>13</v>
       </c>
@@ -2238,13 +2268,13 @@
       <c r="BZ8" s="25"/>
     </row>
     <row r="9" spans="2:78">
-      <c r="B9" s="32" t="str">
+      <c r="B9" s="48" t="str">
         <f>HYPERLINK("#Q1", "２、会場画像リサイズ・リネーム")</f>
         <v>２、会場画像リサイズ・リネーム</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:78">
@@ -2293,22 +2323,22 @@
         <v>14</v>
       </c>
       <c r="AJ10" s="25"/>
-      <c r="AS10" s="34" t="s">
+      <c r="AS10" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34" t="s">
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="AV10" s="34"/>
-      <c r="AY10" s="34" t="s">
+      <c r="AV10" s="82"/>
+      <c r="AY10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="34" t="s">
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="BB10" s="34"/>
+      <c r="BB10" s="26"/>
       <c r="BK10" s="25"/>
       <c r="BL10" s="25"/>
       <c r="BM10" s="25"/>
@@ -2323,13 +2353,13 @@
       <c r="BZ10" s="25"/>
     </row>
     <row r="11" spans="2:78" ht="24" customHeight="1">
-      <c r="B11" s="32" t="str">
+      <c r="B11" s="48" t="str">
         <f>HYPERLINK("#W1", "３、フロア図リサイズ・リネーム")</f>
         <v>３、フロア図リサイズ・リネーム</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="4"/>
       <c r="AG11" s="25"/>
       <c r="AH11" s="25"/>
@@ -2381,13 +2411,13 @@
       <c r="BZ12" s="25"/>
     </row>
     <row r="13" spans="2:78">
-      <c r="B13" s="32" t="str">
+      <c r="B13" s="48" t="str">
         <f>HYPERLINK("#AC1", "４、レイアウト図リサイズ・リネーム")</f>
         <v>４、レイアウト図リサイズ・リネーム</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="4"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
@@ -2421,10 +2451,10 @@
       <c r="AD14" t="s">
         <v>15</v>
       </c>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="26"/>
       <c r="BE14" s="25"/>
       <c r="BF14" s="25"/>
       <c r="BK14" s="25"/>
@@ -2435,13 +2465,13 @@
       <c r="BX14" s="25"/>
     </row>
     <row r="15" spans="2:78">
-      <c r="B15" s="32" t="str">
+      <c r="B15" s="48" t="str">
         <f>HYPERLINK("#AI1", "５、アクセスマップリサイズ・リネーム")</f>
         <v>５、アクセスマップリサイズ・リネーム</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="4"/>
       <c r="AC15" t="s">
         <v>16</v>
@@ -2469,13 +2499,13 @@
       <c r="AP16" s="25"/>
     </row>
     <row r="17" spans="1:42">
-      <c r="B17" s="32" t="str">
+      <c r="B17" s="48" t="str">
         <f>HYPERLINK("#Ao1", "６、商品画像リサイズ・リネーム")</f>
         <v>６、商品画像リサイズ・リネーム</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="4"/>
       <c r="AC17" t="s">
         <v>18</v>
@@ -2503,14 +2533,14 @@
       <c r="AP18" s="25"/>
     </row>
     <row r="19" spans="1:42">
-      <c r="A19" s="24"/>
-      <c r="B19" s="44" t="str">
+      <c r="A19" s="73"/>
+      <c r="B19" s="74" t="str">
         <f>HYPERLINK("#Au1", "７、ルート案内図リサイズ・リネーム")</f>
         <v>７、ルート案内図リサイズ・リネーム</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="4"/>
       <c r="AC19" t="s">
         <v>20</v>
@@ -2530,13 +2560,13 @@
     </row>
     <row r="21" spans="1:42">
       <c r="A21" s="24"/>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="50" t="str">
         <f>HYPERLINK("#BA1", "８、出入り口リサイズ・リネーム")</f>
         <v>８、出入り口リサイズ・リネーム</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="4"/>
       <c r="AC21" t="s">
         <v>22</v>
@@ -2555,13 +2585,13 @@
       </c>
     </row>
     <row r="23" spans="1:42">
-      <c r="B23" s="32" t="str">
+      <c r="B23" s="48" t="str">
         <f>HYPERLINK("#BG1", "９、900x600（3：2）画像リサイズ")</f>
         <v>９、900x600（3：2）画像リサイズ</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="4"/>
       <c r="AC23" t="s">
         <v>24</v>
@@ -2584,13 +2614,13 @@
       </c>
     </row>
     <row r="25" spans="1:42">
-      <c r="B25" s="32" t="str">
+      <c r="B25" s="48" t="str">
         <f>HYPERLINK("#BM1", "１０、960x540（16：9）画像リサイズ")</f>
         <v>１０、960x540（16：9）画像リサイズ</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="4"/>
       <c r="AC25" t="s">
         <v>26</v>
@@ -2609,26 +2639,26 @@
       </c>
     </row>
     <row r="27" spans="1:42">
-      <c r="B27" s="32" t="str">
+      <c r="B27" s="48" t="str">
         <f>HYPERLINK("#BS1", "１１、960x720（4：3）画像リサイズ")</f>
         <v>１１、960x720（4：3）画像リサイズ</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:42">
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:42">
-      <c r="B29" s="32" t="str">
+      <c r="B29" s="48" t="str">
         <f>HYPERLINK("#BY1", "１２、（1：1）画像リサイズ")</f>
         <v>１２、（1：1）画像リサイズ</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:42">
@@ -2641,26 +2671,26 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1">
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6">
@@ -4048,6 +4078,132 @@
     </row>
   </sheetData>
   <mergeCells count="150">
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BW1:BZ2"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="BW8:BX8"/>
+    <mergeCell ref="BY8:BZ8"/>
+    <mergeCell ref="BW10:BX10"/>
+    <mergeCell ref="BY10:BZ10"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="U1:X2"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="BE1:BH2"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AM1:AP2"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AA1:AD2"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="BK10:BL10"/>
+    <mergeCell ref="BM10:BN10"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BM12:BN12"/>
+    <mergeCell ref="BK14:BL14"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AY10:AZ10"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="B33:E35"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO13:AP13"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="BE14:BF14"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO16:AP16"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AO18:AP18"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AG1:AJ2"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="AS1:AV2"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AU8:AV8"/>
     <mergeCell ref="BQ12:BR12"/>
     <mergeCell ref="BS12:BT12"/>
     <mergeCell ref="BQ14:BR14"/>
@@ -4072,132 +4228,6 @@
     <mergeCell ref="AY4:AZ4"/>
     <mergeCell ref="BA4:BB4"/>
     <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="AS1:AV2"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AG1:AJ2"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="B33:E35"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="BE14:BF14"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AO16:AP16"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AO18:AP18"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="BK10:BL10"/>
-    <mergeCell ref="BM10:BN10"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BM12:BN12"/>
-    <mergeCell ref="BK14:BL14"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AU10:AV10"/>
-    <mergeCell ref="AY10:AZ10"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="BE1:BH2"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AM1:AP2"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AA1:AD2"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="U1:X2"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BW1:BZ2"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="BW6:BX6"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="BW8:BX8"/>
-    <mergeCell ref="BY8:BZ8"/>
-    <mergeCell ref="BW10:BX10"/>
-    <mergeCell ref="BY10:BZ10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4224,52 +4254,52 @@
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="3:15">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
       <c r="N4" s="5" t="s">
         <v>59</v>
       </c>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="3:15">
-      <c r="C5" s="55"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="56"/>
+      <c r="I5" s="72"/>
       <c r="N5" s="5"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="3:15">
-      <c r="C6" s="55"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="56"/>
+      <c r="I6" s="72"/>
       <c r="N6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="3:15" ht="21" thickBot="1">
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
       <c r="N7" s="5" t="s">
         <v>63</v>
       </c>
@@ -4328,52 +4358,52 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="3:15">
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
       <c r="N14" s="5"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="3:15">
-      <c r="C15" s="55"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="56"/>
+      <c r="I15" s="72"/>
       <c r="N15" s="6" t="s">
         <v>62</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="55"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="56"/>
+      <c r="I16" s="72"/>
       <c r="N16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="3:15" ht="21" thickBot="1">
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
       <c r="N17" s="5"/>
       <c r="O17" s="4"/>
     </row>
@@ -4413,50 +4443,50 @@
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="3:15">
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
       <c r="N23" s="5"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="3:15">
-      <c r="C24" s="55"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="56"/>
+      <c r="I24" s="72"/>
       <c r="N24" s="14" t="s">
         <v>68</v>
       </c>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="3:15">
-      <c r="C25" s="55"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="56"/>
+      <c r="I25" s="72"/>
       <c r="N25" s="5"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="3:15" ht="21" thickBot="1">
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
       <c r="N26" s="6" t="s">
         <v>56</v>
       </c>
@@ -4472,22 +4502,22 @@
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
       <c r="N28" s="8" t="s">
         <v>69</v>
       </c>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="3:15">
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
       <c r="N29" s="7" t="s">
         <v>132</v>
       </c>
@@ -4509,20 +4539,20 @@
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
       <c r="N32" s="5"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="3:15">
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
       <c r="N33" s="6" t="s">
         <v>62</v>
       </c>
@@ -4544,19 +4574,19 @@
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
       <c r="N36" s="11"/>
     </row>
     <row r="37" spans="3:15">
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
       <c r="N37" s="11"/>
     </row>
     <row r="40" spans="3:15">
@@ -4565,18 +4595,18 @@
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="57" t="s">
+      <c r="F40" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="44" spans="3:15">
       <c r="C44" s="25" t="s">
@@ -4584,18 +4614,18 @@
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
-      <c r="F44" s="57" t="s">
+      <c r="F44" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
     </row>
     <row r="45" spans="3:15">
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
     </row>
     <row r="48" spans="3:15" ht="20" customHeight="1">
       <c r="C48" s="25" t="s">
@@ -4603,18 +4633,18 @@
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="57" t="s">
+      <c r="F48" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
     </row>
     <row r="49" spans="3:9">
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
     </row>
     <row r="52" spans="3:9" ht="20" customHeight="1">
       <c r="C52" s="25" t="s">
@@ -4622,18 +4652,18 @@
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
     </row>
     <row r="53" spans="3:9">
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
     </row>
     <row r="56" spans="3:9" ht="20" customHeight="1">
       <c r="C56" s="25" t="s">
@@ -4641,18 +4671,18 @@
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
-      <c r="F56" s="57" t="s">
+      <c r="F56" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
     </row>
     <row r="57" spans="3:9">
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="25" t="s">
@@ -4660,18 +4690,18 @@
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
-      <c r="F60" s="57" t="s">
+      <c r="F60" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
     </row>
     <row r="61" spans="3:9">
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="25" t="s">
@@ -4679,18 +4709,18 @@
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
-      <c r="F64" s="57" t="s">
+      <c r="F64" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
     </row>
     <row r="65" spans="3:9">
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
     </row>
     <row r="66" spans="3:9">
       <c r="F66" s="15"/>
@@ -4710,18 +4740,18 @@
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
-      <c r="F68" s="57" t="s">
+      <c r="F68" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
     </row>
     <row r="69" spans="3:9">
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
     </row>
     <row r="72" spans="3:9">
       <c r="C72" s="25" t="s">
@@ -4729,57 +4759,57 @@
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
-      <c r="F72" s="57" t="s">
+      <c r="F72" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
     </row>
     <row r="73" spans="3:9">
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
     </row>
     <row r="74" spans="3:9" ht="21" thickBot="1"/>
     <row r="75" spans="3:9">
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="29"/>
     </row>
     <row r="76" spans="3:9">
-      <c r="C76" s="55"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
-      <c r="I76" s="56"/>
+      <c r="I76" s="72"/>
     </row>
     <row r="77" spans="3:9">
-      <c r="C77" s="55"/>
+      <c r="C77" s="71"/>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
-      <c r="I77" s="56"/>
+      <c r="I77" s="72"/>
     </row>
     <row r="78" spans="3:9" ht="21" thickBot="1">
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="31"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="32"/>
     </row>
     <row r="80" spans="3:9">
       <c r="C80" s="25" t="s">
@@ -4809,303 +4839,303 @@
     </row>
     <row r="86" spans="3:9" ht="21" thickBot="1"/>
     <row r="87" spans="3:9">
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="3:9">
-      <c r="C88" s="55"/>
+      <c r="C88" s="71"/>
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
-      <c r="I88" s="56"/>
+      <c r="I88" s="72"/>
     </row>
     <row r="89" spans="3:9">
-      <c r="C89" s="55"/>
+      <c r="C89" s="71"/>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
-      <c r="I89" s="56"/>
+      <c r="I89" s="72"/>
     </row>
     <row r="90" spans="3:9" ht="21" thickBot="1">
-      <c r="C90" s="29"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="31"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="32"/>
     </row>
     <row r="94" spans="3:9" ht="21" thickBot="1"/>
     <row r="95" spans="3:9">
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="29"/>
     </row>
     <row r="96" spans="3:9">
-      <c r="C96" s="55"/>
+      <c r="C96" s="71"/>
       <c r="D96" s="25"/>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
-      <c r="I96" s="56"/>
+      <c r="I96" s="72"/>
     </row>
     <row r="97" spans="3:17">
-      <c r="C97" s="55"/>
+      <c r="C97" s="71"/>
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
-      <c r="I97" s="56"/>
+      <c r="I97" s="72"/>
     </row>
     <row r="98" spans="3:17" ht="21" thickBot="1">
-      <c r="C98" s="29"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="31"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="32"/>
     </row>
     <row r="100" spans="3:17">
-      <c r="C100" s="52" t="s">
+      <c r="C100" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="54"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="69"/>
+      <c r="I100" s="70"/>
     </row>
     <row r="102" spans="3:17" ht="20" customHeight="1">
-      <c r="C102" s="65" t="s">
+      <c r="C102" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="67"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
       <c r="J102" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="K102" s="58" t="s">
+      <c r="K102" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="L102" s="59"/>
-      <c r="M102" s="59"/>
-      <c r="N102" s="59"/>
-      <c r="O102" s="59"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="60"/>
+      <c r="L102" s="53"/>
+      <c r="M102" s="53"/>
+      <c r="N102" s="53"/>
+      <c r="O102" s="53"/>
+      <c r="P102" s="53"/>
+      <c r="Q102" s="54"/>
     </row>
     <row r="103" spans="3:17">
-      <c r="C103" s="68"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="69"/>
-      <c r="K103" s="61"/>
-      <c r="L103" s="62"/>
-      <c r="M103" s="62"/>
-      <c r="N103" s="62"/>
-      <c r="O103" s="62"/>
-      <c r="P103" s="62"/>
-      <c r="Q103" s="63"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="63"/>
+      <c r="K103" s="55"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="56"/>
+      <c r="N103" s="56"/>
+      <c r="O103" s="56"/>
+      <c r="P103" s="56"/>
+      <c r="Q103" s="57"/>
     </row>
     <row r="104" spans="3:17">
-      <c r="C104" s="68"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="69"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="63"/>
     </row>
     <row r="105" spans="3:17">
-      <c r="C105" s="68"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="69"/>
-      <c r="K105" s="58" t="s">
+      <c r="C105" s="62"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="63"/>
+      <c r="K105" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="L105" s="59"/>
-      <c r="M105" s="59"/>
-      <c r="N105" s="59"/>
-      <c r="O105" s="59"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="60"/>
+      <c r="L105" s="53"/>
+      <c r="M105" s="53"/>
+      <c r="N105" s="53"/>
+      <c r="O105" s="53"/>
+      <c r="P105" s="53"/>
+      <c r="Q105" s="54"/>
     </row>
     <row r="106" spans="3:17">
-      <c r="C106" s="68"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="69"/>
-      <c r="K106" s="61"/>
-      <c r="L106" s="62"/>
-      <c r="M106" s="62"/>
-      <c r="N106" s="62"/>
-      <c r="O106" s="62"/>
-      <c r="P106" s="62"/>
-      <c r="Q106" s="63"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="63"/>
+      <c r="K106" s="55"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="56"/>
+      <c r="N106" s="56"/>
+      <c r="O106" s="56"/>
+      <c r="P106" s="56"/>
+      <c r="Q106" s="57"/>
     </row>
     <row r="107" spans="3:17">
-      <c r="C107" s="70"/>
-      <c r="D107" s="71"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="72"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="66"/>
     </row>
     <row r="108" spans="3:17" ht="39" customHeight="1">
-      <c r="K108" s="58" t="s">
+      <c r="K108" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="L108" s="59"/>
-      <c r="M108" s="59"/>
-      <c r="N108" s="59"/>
-      <c r="O108" s="59"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="60"/>
+      <c r="L108" s="53"/>
+      <c r="M108" s="53"/>
+      <c r="N108" s="53"/>
+      <c r="O108" s="53"/>
+      <c r="P108" s="53"/>
+      <c r="Q108" s="54"/>
     </row>
     <row r="109" spans="3:17" ht="39" customHeight="1">
-      <c r="K109" s="61"/>
-      <c r="L109" s="62"/>
-      <c r="M109" s="62"/>
-      <c r="N109" s="62"/>
-      <c r="O109" s="62"/>
-      <c r="P109" s="62"/>
-      <c r="Q109" s="63"/>
+      <c r="K109" s="55"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="56"/>
+      <c r="N109" s="56"/>
+      <c r="O109" s="56"/>
+      <c r="P109" s="56"/>
+      <c r="Q109" s="57"/>
     </row>
     <row r="111" spans="3:17" ht="44" customHeight="1">
-      <c r="K111" s="58" t="s">
+      <c r="K111" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="L111" s="59"/>
-      <c r="M111" s="59"/>
-      <c r="N111" s="59"/>
-      <c r="O111" s="59"/>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="60"/>
+      <c r="L111" s="53"/>
+      <c r="M111" s="53"/>
+      <c r="N111" s="53"/>
+      <c r="O111" s="53"/>
+      <c r="P111" s="53"/>
+      <c r="Q111" s="54"/>
     </row>
     <row r="112" spans="3:17" ht="44" customHeight="1">
-      <c r="K112" s="61"/>
-      <c r="L112" s="62"/>
-      <c r="M112" s="62"/>
-      <c r="N112" s="62"/>
-      <c r="O112" s="62"/>
-      <c r="P112" s="62"/>
-      <c r="Q112" s="63"/>
+      <c r="K112" s="55"/>
+      <c r="L112" s="56"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="56"/>
+      <c r="O112" s="56"/>
+      <c r="P112" s="56"/>
+      <c r="Q112" s="57"/>
     </row>
     <row r="114" spans="11:17" ht="46" customHeight="1">
-      <c r="K114" s="64" t="s">
+      <c r="K114" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="L114" s="59"/>
-      <c r="M114" s="59"/>
-      <c r="N114" s="59"/>
-      <c r="O114" s="59"/>
-      <c r="P114" s="59"/>
-      <c r="Q114" s="60"/>
+      <c r="L114" s="53"/>
+      <c r="M114" s="53"/>
+      <c r="N114" s="53"/>
+      <c r="O114" s="53"/>
+      <c r="P114" s="53"/>
+      <c r="Q114" s="54"/>
     </row>
     <row r="115" spans="11:17" ht="46" customHeight="1">
-      <c r="K115" s="61"/>
-      <c r="L115" s="62"/>
-      <c r="M115" s="62"/>
-      <c r="N115" s="62"/>
-      <c r="O115" s="62"/>
-      <c r="P115" s="62"/>
-      <c r="Q115" s="63"/>
+      <c r="K115" s="55"/>
+      <c r="L115" s="56"/>
+      <c r="M115" s="56"/>
+      <c r="N115" s="56"/>
+      <c r="O115" s="56"/>
+      <c r="P115" s="56"/>
+      <c r="Q115" s="57"/>
     </row>
     <row r="117" spans="11:17" ht="51" customHeight="1">
-      <c r="K117" s="58" t="s">
+      <c r="K117" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="L117" s="59"/>
-      <c r="M117" s="59"/>
-      <c r="N117" s="59"/>
-      <c r="O117" s="59"/>
-      <c r="P117" s="59"/>
-      <c r="Q117" s="60"/>
+      <c r="L117" s="53"/>
+      <c r="M117" s="53"/>
+      <c r="N117" s="53"/>
+      <c r="O117" s="53"/>
+      <c r="P117" s="53"/>
+      <c r="Q117" s="54"/>
     </row>
     <row r="118" spans="11:17" ht="51" customHeight="1">
-      <c r="K118" s="61"/>
-      <c r="L118" s="62"/>
-      <c r="M118" s="62"/>
-      <c r="N118" s="62"/>
-      <c r="O118" s="62"/>
-      <c r="P118" s="62"/>
-      <c r="Q118" s="63"/>
+      <c r="K118" s="55"/>
+      <c r="L118" s="56"/>
+      <c r="M118" s="56"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="56"/>
+      <c r="P118" s="56"/>
+      <c r="Q118" s="57"/>
     </row>
     <row r="120" spans="11:17" ht="47" customHeight="1">
-      <c r="K120" s="64" t="s">
+      <c r="K120" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="L120" s="59"/>
-      <c r="M120" s="59"/>
-      <c r="N120" s="59"/>
-      <c r="O120" s="59"/>
-      <c r="P120" s="59"/>
-      <c r="Q120" s="60"/>
+      <c r="L120" s="53"/>
+      <c r="M120" s="53"/>
+      <c r="N120" s="53"/>
+      <c r="O120" s="53"/>
+      <c r="P120" s="53"/>
+      <c r="Q120" s="54"/>
     </row>
     <row r="121" spans="11:17" ht="47" customHeight="1">
-      <c r="K121" s="61"/>
-      <c r="L121" s="62"/>
-      <c r="M121" s="62"/>
-      <c r="N121" s="62"/>
-      <c r="O121" s="62"/>
-      <c r="P121" s="62"/>
-      <c r="Q121" s="63"/>
+      <c r="K121" s="55"/>
+      <c r="L121" s="56"/>
+      <c r="M121" s="56"/>
+      <c r="N121" s="56"/>
+      <c r="O121" s="56"/>
+      <c r="P121" s="56"/>
+      <c r="Q121" s="57"/>
     </row>
     <row r="123" spans="11:17" ht="42" customHeight="1">
-      <c r="K123" s="64" t="s">
+      <c r="K123" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="L123" s="59"/>
-      <c r="M123" s="59"/>
-      <c r="N123" s="59"/>
-      <c r="O123" s="59"/>
-      <c r="P123" s="59"/>
-      <c r="Q123" s="60"/>
+      <c r="L123" s="53"/>
+      <c r="M123" s="53"/>
+      <c r="N123" s="53"/>
+      <c r="O123" s="53"/>
+      <c r="P123" s="53"/>
+      <c r="Q123" s="54"/>
     </row>
     <row r="124" spans="11:17" ht="42" customHeight="1">
-      <c r="K124" s="61"/>
-      <c r="L124" s="62"/>
-      <c r="M124" s="62"/>
-      <c r="N124" s="62"/>
-      <c r="O124" s="62"/>
-      <c r="P124" s="62"/>
-      <c r="Q124" s="63"/>
+      <c r="K124" s="55"/>
+      <c r="L124" s="56"/>
+      <c r="M124" s="56"/>
+      <c r="N124" s="56"/>
+      <c r="O124" s="56"/>
+      <c r="P124" s="56"/>
+      <c r="Q124" s="57"/>
     </row>
     <row r="126" spans="11:17" ht="44" customHeight="1"/>
     <row r="127" spans="11:17" ht="44" customHeight="1"/>
@@ -5113,34 +5143,6 @@
     <row r="130" ht="49" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K117:Q118"/>
-    <mergeCell ref="K120:Q121"/>
-    <mergeCell ref="K123:Q124"/>
-    <mergeCell ref="C102:I107"/>
-    <mergeCell ref="K105:Q106"/>
-    <mergeCell ref="K111:Q112"/>
-    <mergeCell ref="K102:Q103"/>
-    <mergeCell ref="K108:Q109"/>
-    <mergeCell ref="K114:Q115"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I45"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:I57"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I49"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:I61"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:I69"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I65"/>
-    <mergeCell ref="F32:I33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I41"/>
     <mergeCell ref="C100:I100"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C14:I17"/>
@@ -5157,6 +5159,34 @@
     <mergeCell ref="C87:I90"/>
     <mergeCell ref="F28:I29"/>
     <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I41"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:I61"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:I69"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I65"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I45"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:I57"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I49"/>
+    <mergeCell ref="K117:Q118"/>
+    <mergeCell ref="K120:Q121"/>
+    <mergeCell ref="K123:Q124"/>
+    <mergeCell ref="C102:I107"/>
+    <mergeCell ref="K105:Q106"/>
+    <mergeCell ref="K111:Q112"/>
+    <mergeCell ref="K102:Q103"/>
+    <mergeCell ref="K108:Q109"/>
+    <mergeCell ref="K114:Q115"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/★User_manual.xlsx
+++ b/★User_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxuan-cao/Desktop/★Image_resize_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397919EF-03B1-DB43-9ADA-FEDA737F13C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D17AD2-4140-5E41-B176-6C1428C96A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="840" windowWidth="29740" windowHeight="17360" xr2:uid="{978104CD-E69B-8B47-B746-280926B41D72}"/>
+    <workbookView xWindow="400" yWindow="1260" windowWidth="29740" windowHeight="17360" activeTab="1" xr2:uid="{978104CD-E69B-8B47-B746-280926B41D72}"/>
   </bookViews>
   <sheets>
     <sheet name="おさらい" sheetId="1" r:id="rId1"/>
@@ -1178,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1257,26 +1257,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,44 +1338,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1379,54 +1400,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1772,9 +1745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE60BE7-F59D-464F-A1CD-5AC395AA67C3}">
   <dimension ref="A1:BZ496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV11" sqref="AV11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1795,8 +1768,8 @@
     <col min="38" max="38" width="9.28515625" customWidth="1"/>
     <col min="39" max="40" width="15" customWidth="1"/>
     <col min="41" max="42" width="20.7109375" customWidth="1"/>
-    <col min="45" max="46" width="15" style="73" customWidth="1"/>
-    <col min="47" max="48" width="20.7109375" style="73" customWidth="1"/>
+    <col min="45" max="46" width="15" customWidth="1"/>
+    <col min="47" max="48" width="20.7109375" customWidth="1"/>
     <col min="51" max="52" width="15" style="24" customWidth="1"/>
     <col min="53" max="54" width="20.7109375" style="24" customWidth="1"/>
     <col min="57" max="58" width="15" customWidth="1"/>
@@ -1811,146 +1784,146 @@
   <sheetData>
     <row r="1" spans="2:78">
       <c r="F1" s="4"/>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="O1" s="27" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="O1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="29"/>
-      <c r="U1" s="27" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="28"/>
+      <c r="U1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="29"/>
-      <c r="AA1" s="27" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="28"/>
+      <c r="AA1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="29"/>
-      <c r="AG1" s="27" t="s">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="28"/>
+      <c r="AG1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="29"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="28"/>
       <c r="AL1" s="2"/>
-      <c r="AM1" s="27" t="s">
+      <c r="AM1" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="29"/>
-      <c r="AS1" s="76" t="s">
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="28"/>
+      <c r="AS1" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="78"/>
-      <c r="AY1" s="33" t="s">
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="28"/>
+      <c r="AY1" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="35"/>
-      <c r="BE1" s="27" t="s">
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="49"/>
+      <c r="BE1" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="29"/>
-      <c r="BK1" s="27" t="s">
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="28"/>
+      <c r="BK1" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="29"/>
-      <c r="BQ1" s="27" t="s">
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="28"/>
+      <c r="BQ1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BR1" s="28"/>
-      <c r="BS1" s="28"/>
-      <c r="BT1" s="29"/>
-      <c r="BW1" s="27" t="s">
+      <c r="BR1" s="27"/>
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="28"/>
+      <c r="BW1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="29"/>
+      <c r="BX1" s="27"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="28"/>
     </row>
     <row r="2" spans="2:78" ht="21" thickBot="1">
       <c r="F2" s="4"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="32"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="32"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="32"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="31"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="31"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="32"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="81"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="38"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="31"/>
-      <c r="BG2" s="31"/>
-      <c r="BH2" s="32"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="31"/>
-      <c r="BM2" s="31"/>
-      <c r="BN2" s="32"/>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="31"/>
-      <c r="BS2" s="31"/>
-      <c r="BT2" s="32"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="31"/>
-      <c r="BY2" s="31"/>
-      <c r="BZ2" s="32"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="31"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="31"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="52"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="31"/>
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="30"/>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="31"/>
+      <c r="BQ2" s="29"/>
+      <c r="BR2" s="30"/>
+      <c r="BS2" s="30"/>
+      <c r="BT2" s="31"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="31"/>
     </row>
     <row r="3" spans="2:78">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:78" ht="21" thickBot="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="4"/>
       <c r="I4" s="25" t="s">
         <v>6</v>
@@ -2001,22 +1974,22 @@
         <v>49</v>
       </c>
       <c r="AP4" s="25"/>
-      <c r="AS4" s="82" t="s">
+      <c r="AS4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82" t="s">
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="AV4" s="82"/>
-      <c r="AY4" s="26" t="s">
+      <c r="AV4" s="25"/>
+      <c r="AY4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26" t="s">
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="BB4" s="26"/>
+      <c r="BB4" s="34"/>
       <c r="BE4" s="25" t="s">
         <v>6</v>
       </c>
@@ -2104,22 +2077,22 @@
         <v>83</v>
       </c>
       <c r="AP6" s="25"/>
-      <c r="AS6" s="82" t="s">
+      <c r="AS6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82" t="s">
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="AV6" s="82"/>
-      <c r="AY6" s="26" t="s">
+      <c r="AV6" s="25"/>
+      <c r="AY6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AZ6" s="26"/>
-      <c r="BA6" s="26" t="s">
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="BB6" s="26"/>
+      <c r="BB6" s="34"/>
       <c r="BE6" s="25" t="s">
         <v>3</v>
       </c>
@@ -2154,13 +2127,13 @@
       <c r="BZ6" s="25"/>
     </row>
     <row r="7" spans="2:78">
-      <c r="B7" s="48" t="str">
+      <c r="B7" s="32" t="str">
         <f>HYPERLINK("#J1", "１、施設外観リサイズ・リネーム")</f>
         <v>１、施設外観リサイズ・リネーム</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:78">
@@ -2218,22 +2191,22 @@
         <v>81</v>
       </c>
       <c r="AP8" s="25"/>
-      <c r="AS8" s="82" t="s">
+      <c r="AS8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82" t="s">
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="AV8" s="82"/>
-      <c r="AY8" s="26" t="s">
+      <c r="AV8" s="25"/>
+      <c r="AY8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26" t="s">
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="BB8" s="26"/>
+      <c r="BB8" s="34"/>
       <c r="BE8" s="25" t="s">
         <v>13</v>
       </c>
@@ -2268,13 +2241,13 @@
       <c r="BZ8" s="25"/>
     </row>
     <row r="9" spans="2:78">
-      <c r="B9" s="48" t="str">
+      <c r="B9" s="32" t="str">
         <f>HYPERLINK("#Q1", "２、会場画像リサイズ・リネーム")</f>
         <v>２、会場画像リサイズ・リネーム</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:78">
@@ -2323,22 +2296,22 @@
         <v>14</v>
       </c>
       <c r="AJ10" s="25"/>
-      <c r="AS10" s="82" t="s">
+      <c r="AS10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82" t="s">
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AV10" s="82"/>
-      <c r="AY10" s="26" t="s">
+      <c r="AV10" s="25"/>
+      <c r="AY10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26" t="s">
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="BB10" s="26"/>
+      <c r="BB10" s="34"/>
       <c r="BK10" s="25"/>
       <c r="BL10" s="25"/>
       <c r="BM10" s="25"/>
@@ -2353,13 +2326,13 @@
       <c r="BZ10" s="25"/>
     </row>
     <row r="11" spans="2:78" ht="24" customHeight="1">
-      <c r="B11" s="48" t="str">
+      <c r="B11" s="32" t="str">
         <f>HYPERLINK("#W1", "３、フロア図リサイズ・リネーム")</f>
         <v>３、フロア図リサイズ・リネーム</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="4"/>
       <c r="AG11" s="25"/>
       <c r="AH11" s="25"/>
@@ -2411,13 +2384,13 @@
       <c r="BZ12" s="25"/>
     </row>
     <row r="13" spans="2:78">
-      <c r="B13" s="48" t="str">
+      <c r="B13" s="32" t="str">
         <f>HYPERLINK("#AC1", "４、レイアウト図リサイズ・リネーム")</f>
         <v>４、レイアウト図リサイズ・リネーム</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="4"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
@@ -2451,10 +2424,10 @@
       <c r="AD14" t="s">
         <v>15</v>
       </c>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="82"/>
-      <c r="AY14" s="26"/>
-      <c r="AZ14" s="26"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="34"/>
       <c r="BE14" s="25"/>
       <c r="BF14" s="25"/>
       <c r="BK14" s="25"/>
@@ -2465,13 +2438,13 @@
       <c r="BX14" s="25"/>
     </row>
     <row r="15" spans="2:78">
-      <c r="B15" s="48" t="str">
+      <c r="B15" s="32" t="str">
         <f>HYPERLINK("#AI1", "５、アクセスマップリサイズ・リネーム")</f>
         <v>５、アクセスマップリサイズ・リネーム</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="4"/>
       <c r="AC15" t="s">
         <v>16</v>
@@ -2499,13 +2472,13 @@
       <c r="AP16" s="25"/>
     </row>
     <row r="17" spans="1:42">
-      <c r="B17" s="48" t="str">
+      <c r="B17" s="32" t="str">
         <f>HYPERLINK("#Ao1", "６、商品画像リサイズ・リネーム")</f>
         <v>６、商品画像リサイズ・リネーム</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="4"/>
       <c r="AC17" t="s">
         <v>18</v>
@@ -2533,14 +2506,13 @@
       <c r="AP18" s="25"/>
     </row>
     <row r="19" spans="1:42">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74" t="str">
+      <c r="B19" s="44" t="str">
         <f>HYPERLINK("#Au1", "７、ルート案内図リサイズ・リネーム")</f>
         <v>７、ルート案内図リサイズ・リネーム</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="4"/>
       <c r="AC19" t="s">
         <v>20</v>
@@ -2560,13 +2532,13 @@
     </row>
     <row r="21" spans="1:42">
       <c r="A21" s="24"/>
-      <c r="B21" s="50" t="str">
+      <c r="B21" s="45" t="str">
         <f>HYPERLINK("#BA1", "８、出入り口リサイズ・リネーム")</f>
         <v>８、出入り口リサイズ・リネーム</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="4"/>
       <c r="AC21" t="s">
         <v>22</v>
@@ -2585,13 +2557,13 @@
       </c>
     </row>
     <row r="23" spans="1:42">
-      <c r="B23" s="48" t="str">
+      <c r="B23" s="32" t="str">
         <f>HYPERLINK("#BG1", "９、900x600（3：2）画像リサイズ")</f>
         <v>９、900x600（3：2）画像リサイズ</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="4"/>
       <c r="AC23" t="s">
         <v>24</v>
@@ -2614,13 +2586,13 @@
       </c>
     </row>
     <row r="25" spans="1:42">
-      <c r="B25" s="48" t="str">
+      <c r="B25" s="32" t="str">
         <f>HYPERLINK("#BM1", "１０、960x540（16：9）画像リサイズ")</f>
         <v>１０、960x540（16：9）画像リサイズ</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="4"/>
       <c r="AC25" t="s">
         <v>26</v>
@@ -2639,26 +2611,26 @@
       </c>
     </row>
     <row r="27" spans="1:42">
-      <c r="B27" s="48" t="str">
+      <c r="B27" s="32" t="str">
         <f>HYPERLINK("#BS1", "１１、960x720（4：3）画像リサイズ")</f>
         <v>１１、960x720（4：3）画像リサイズ</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:42">
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:42">
-      <c r="B29" s="48" t="str">
+      <c r="B29" s="32" t="str">
         <f>HYPERLINK("#BY1", "１２、（1：1）画像リサイズ")</f>
         <v>１２、（1：1）画像リサイズ</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:42">
@@ -2671,26 +2643,26 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" ht="21" thickBot="1">
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6">
@@ -4078,56 +4050,82 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="BW14:BX14"/>
-    <mergeCell ref="BW1:BZ2"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="BW6:BX6"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="BW8:BX8"/>
-    <mergeCell ref="BY8:BZ8"/>
-    <mergeCell ref="BW10:BX10"/>
-    <mergeCell ref="BY10:BZ10"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="U1:X2"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="O1:R2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BQ14:BR14"/>
+    <mergeCell ref="AY14:AZ14"/>
+    <mergeCell ref="BK1:BN2"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="BK8:BL8"/>
+    <mergeCell ref="BM8:BN8"/>
+    <mergeCell ref="BQ1:BT2"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BQ8:BR8"/>
+    <mergeCell ref="BS8:BT8"/>
+    <mergeCell ref="BQ10:BR10"/>
+    <mergeCell ref="BS10:BT10"/>
+    <mergeCell ref="AY1:BB2"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="AS1:AV2"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AG1:AJ2"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="B33:E35"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO13:AP13"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="BE14:BF14"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO16:AP16"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AO18:AP18"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="BK10:BL10"/>
+    <mergeCell ref="BM10:BN10"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BM12:BN12"/>
+    <mergeCell ref="BK14:BL14"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AY10:AZ10"/>
+    <mergeCell ref="BA10:BB10"/>
     <mergeCell ref="BE1:BH2"/>
     <mergeCell ref="BE4:BF4"/>
     <mergeCell ref="BG4:BH4"/>
@@ -4152,82 +4150,56 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="BK10:BL10"/>
-    <mergeCell ref="BM10:BN10"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BM12:BN12"/>
-    <mergeCell ref="BK14:BL14"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AU10:AV10"/>
-    <mergeCell ref="AY10:AZ10"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="B33:E35"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="BE14:BF14"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AO16:AP16"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AO18:AP18"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AG1:AJ2"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="AY8:AZ8"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="AS1:AV2"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="BQ12:BR12"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BQ14:BR14"/>
-    <mergeCell ref="AY14:AZ14"/>
-    <mergeCell ref="BK1:BN2"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BM6:BN6"/>
-    <mergeCell ref="BK8:BL8"/>
-    <mergeCell ref="BM8:BN8"/>
-    <mergeCell ref="BQ1:BT2"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BQ6:BR6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BQ8:BR8"/>
-    <mergeCell ref="BS8:BT8"/>
-    <mergeCell ref="BQ10:BR10"/>
-    <mergeCell ref="BS10:BT10"/>
-    <mergeCell ref="AY1:BB2"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="U1:X2"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="O1:R2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="BW14:BX14"/>
+    <mergeCell ref="BW1:BZ2"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="BW8:BX8"/>
+    <mergeCell ref="BY8:BZ8"/>
+    <mergeCell ref="BW10:BX10"/>
+    <mergeCell ref="BY10:BZ10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4238,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA8DD78-188E-C04B-ABEE-E10031103364}">
   <dimension ref="C2:Q130"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="86" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4254,52 +4226,52 @@
       <c r="O3" s="13"/>
     </row>
     <row r="4" spans="3:15">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
       <c r="N4" s="5" t="s">
         <v>59</v>
       </c>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="3:15">
-      <c r="C5" s="71"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="72"/>
+      <c r="I5" s="57"/>
       <c r="N5" s="5"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="3:15">
-      <c r="C6" s="71"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="72"/>
+      <c r="I6" s="57"/>
       <c r="N6" s="14" t="s">
         <v>60</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="3:15" ht="21" thickBot="1">
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
       <c r="N7" s="5" t="s">
         <v>63</v>
       </c>
@@ -4358,52 +4330,52 @@
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="3:15">
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
       <c r="N14" s="5"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="3:15">
-      <c r="C15" s="71"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="72"/>
+      <c r="I15" s="57"/>
       <c r="N15" s="6" t="s">
         <v>62</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="71"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="72"/>
+      <c r="I16" s="57"/>
       <c r="N16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="3:15" ht="21" thickBot="1">
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
       <c r="N17" s="5"/>
       <c r="O17" s="4"/>
     </row>
@@ -4443,50 +4415,50 @@
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="3:15">
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="N23" s="5"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="3:15">
-      <c r="C24" s="71"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="72"/>
+      <c r="I24" s="57"/>
       <c r="N24" s="14" t="s">
         <v>68</v>
       </c>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="3:15">
-      <c r="C25" s="71"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="72"/>
+      <c r="I25" s="57"/>
       <c r="N25" s="5"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="3:15" ht="21" thickBot="1">
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
       <c r="N26" s="6" t="s">
         <v>56</v>
       </c>
@@ -4502,22 +4474,22 @@
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
       <c r="N28" s="8" t="s">
         <v>69</v>
       </c>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="3:15">
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
       <c r="N29" s="7" t="s">
         <v>132</v>
       </c>
@@ -4539,20 +4511,20 @@
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
       <c r="N32" s="5"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="3:15">
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
       <c r="N33" s="6" t="s">
         <v>62</v>
       </c>
@@ -4574,19 +4546,19 @@
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
       <c r="N36" s="11"/>
     </row>
     <row r="37" spans="3:15">
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
       <c r="N37" s="11"/>
     </row>
     <row r="40" spans="3:15">
@@ -4595,18 +4567,18 @@
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
     </row>
     <row r="44" spans="3:15">
       <c r="C44" s="25" t="s">
@@ -4614,18 +4586,18 @@
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
-      <c r="F44" s="67" t="s">
+      <c r="F44" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="3:15">
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
     </row>
     <row r="48" spans="3:15" ht="20" customHeight="1">
       <c r="C48" s="25" t="s">
@@ -4633,18 +4605,18 @@
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="67" t="s">
+      <c r="F48" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
     </row>
     <row r="49" spans="3:9">
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
     </row>
     <row r="52" spans="3:9" ht="20" customHeight="1">
       <c r="C52" s="25" t="s">
@@ -4652,18 +4624,18 @@
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
-      <c r="F52" s="67" t="s">
+      <c r="F52" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
     </row>
     <row r="53" spans="3:9">
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
     </row>
     <row r="56" spans="3:9" ht="20" customHeight="1">
       <c r="C56" s="25" t="s">
@@ -4671,18 +4643,18 @@
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
-      <c r="F56" s="67" t="s">
+      <c r="F56" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
     </row>
     <row r="57" spans="3:9">
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="25" t="s">
@@ -4690,18 +4662,18 @@
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
-      <c r="F60" s="67" t="s">
+      <c r="F60" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
     </row>
     <row r="61" spans="3:9">
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="25" t="s">
@@ -4709,18 +4681,18 @@
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
-      <c r="F64" s="67" t="s">
+      <c r="F64" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
     </row>
     <row r="65" spans="3:9">
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
     </row>
     <row r="66" spans="3:9">
       <c r="F66" s="15"/>
@@ -4740,18 +4712,18 @@
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
-      <c r="F68" s="67" t="s">
+      <c r="F68" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
     </row>
     <row r="69" spans="3:9">
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
     </row>
     <row r="72" spans="3:9">
       <c r="C72" s="25" t="s">
@@ -4759,57 +4731,57 @@
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
     </row>
     <row r="73" spans="3:9">
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
     </row>
     <row r="74" spans="3:9" ht="21" thickBot="1"/>
     <row r="75" spans="3:9">
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="29"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="28"/>
     </row>
     <row r="76" spans="3:9">
-      <c r="C76" s="71"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
-      <c r="I76" s="72"/>
+      <c r="I76" s="57"/>
     </row>
     <row r="77" spans="3:9">
-      <c r="C77" s="71"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
-      <c r="I77" s="72"/>
+      <c r="I77" s="57"/>
     </row>
     <row r="78" spans="3:9" ht="21" thickBot="1">
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="32"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="31"/>
     </row>
     <row r="80" spans="3:9">
       <c r="C80" s="25" t="s">
@@ -4839,303 +4811,303 @@
     </row>
     <row r="86" spans="3:9" ht="21" thickBot="1"/>
     <row r="87" spans="3:9">
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="29"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="28"/>
     </row>
     <row r="88" spans="3:9">
-      <c r="C88" s="71"/>
+      <c r="C88" s="56"/>
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
-      <c r="I88" s="72"/>
+      <c r="I88" s="57"/>
     </row>
     <row r="89" spans="3:9">
-      <c r="C89" s="71"/>
+      <c r="C89" s="56"/>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
-      <c r="I89" s="72"/>
+      <c r="I89" s="57"/>
     </row>
     <row r="90" spans="3:9" ht="21" thickBot="1">
-      <c r="C90" s="30"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="32"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="31"/>
     </row>
     <row r="94" spans="3:9" ht="21" thickBot="1"/>
     <row r="95" spans="3:9">
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="29"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="28"/>
     </row>
     <row r="96" spans="3:9">
-      <c r="C96" s="71"/>
+      <c r="C96" s="56"/>
       <c r="D96" s="25"/>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
-      <c r="I96" s="72"/>
+      <c r="I96" s="57"/>
     </row>
     <row r="97" spans="3:17">
-      <c r="C97" s="71"/>
+      <c r="C97" s="56"/>
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
-      <c r="I97" s="72"/>
+      <c r="I97" s="57"/>
     </row>
     <row r="98" spans="3:17" ht="21" thickBot="1">
-      <c r="C98" s="30"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="32"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="31"/>
     </row>
     <row r="100" spans="3:17">
-      <c r="C100" s="68" t="s">
+      <c r="C100" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="D100" s="69"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="69"/>
-      <c r="I100" s="70"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="54"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="55"/>
     </row>
     <row r="102" spans="3:17" ht="20" customHeight="1">
-      <c r="C102" s="59" t="s">
+      <c r="C102" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="68"/>
       <c r="J102" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="K102" s="52" t="s">
+      <c r="K102" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="L102" s="53"/>
-      <c r="M102" s="53"/>
-      <c r="N102" s="53"/>
-      <c r="O102" s="53"/>
-      <c r="P102" s="53"/>
-      <c r="Q102" s="54"/>
+      <c r="L102" s="60"/>
+      <c r="M102" s="60"/>
+      <c r="N102" s="60"/>
+      <c r="O102" s="60"/>
+      <c r="P102" s="60"/>
+      <c r="Q102" s="61"/>
     </row>
     <row r="103" spans="3:17">
-      <c r="C103" s="62"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="63"/>
-      <c r="K103" s="55"/>
-      <c r="L103" s="56"/>
-      <c r="M103" s="56"/>
-      <c r="N103" s="56"/>
-      <c r="O103" s="56"/>
-      <c r="P103" s="56"/>
-      <c r="Q103" s="57"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="70"/>
+      <c r="K103" s="62"/>
+      <c r="L103" s="63"/>
+      <c r="M103" s="63"/>
+      <c r="N103" s="63"/>
+      <c r="O103" s="63"/>
+      <c r="P103" s="63"/>
+      <c r="Q103" s="64"/>
     </row>
     <row r="104" spans="3:17">
-      <c r="C104" s="62"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="63"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="70"/>
     </row>
     <row r="105" spans="3:17">
-      <c r="C105" s="62"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="63"/>
-      <c r="K105" s="52" t="s">
+      <c r="C105" s="69"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="70"/>
+      <c r="K105" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="L105" s="53"/>
-      <c r="M105" s="53"/>
-      <c r="N105" s="53"/>
-      <c r="O105" s="53"/>
-      <c r="P105" s="53"/>
-      <c r="Q105" s="54"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="60"/>
+      <c r="N105" s="60"/>
+      <c r="O105" s="60"/>
+      <c r="P105" s="60"/>
+      <c r="Q105" s="61"/>
     </row>
     <row r="106" spans="3:17">
-      <c r="C106" s="62"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="63"/>
-      <c r="K106" s="55"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="56"/>
-      <c r="N106" s="56"/>
-      <c r="O106" s="56"/>
-      <c r="P106" s="56"/>
-      <c r="Q106" s="57"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="70"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="63"/>
+      <c r="M106" s="63"/>
+      <c r="N106" s="63"/>
+      <c r="O106" s="63"/>
+      <c r="P106" s="63"/>
+      <c r="Q106" s="64"/>
     </row>
     <row r="107" spans="3:17">
-      <c r="C107" s="64"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="66"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="73"/>
     </row>
     <row r="108" spans="3:17" ht="39" customHeight="1">
-      <c r="K108" s="52" t="s">
+      <c r="K108" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="L108" s="53"/>
-      <c r="M108" s="53"/>
-      <c r="N108" s="53"/>
-      <c r="O108" s="53"/>
-      <c r="P108" s="53"/>
-      <c r="Q108" s="54"/>
+      <c r="L108" s="60"/>
+      <c r="M108" s="60"/>
+      <c r="N108" s="60"/>
+      <c r="O108" s="60"/>
+      <c r="P108" s="60"/>
+      <c r="Q108" s="61"/>
     </row>
     <row r="109" spans="3:17" ht="39" customHeight="1">
-      <c r="K109" s="55"/>
-      <c r="L109" s="56"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="56"/>
-      <c r="O109" s="56"/>
-      <c r="P109" s="56"/>
-      <c r="Q109" s="57"/>
+      <c r="K109" s="62"/>
+      <c r="L109" s="63"/>
+      <c r="M109" s="63"/>
+      <c r="N109" s="63"/>
+      <c r="O109" s="63"/>
+      <c r="P109" s="63"/>
+      <c r="Q109" s="64"/>
     </row>
     <row r="111" spans="3:17" ht="44" customHeight="1">
-      <c r="K111" s="52" t="s">
+      <c r="K111" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="L111" s="53"/>
-      <c r="M111" s="53"/>
-      <c r="N111" s="53"/>
-      <c r="O111" s="53"/>
-      <c r="P111" s="53"/>
-      <c r="Q111" s="54"/>
+      <c r="L111" s="60"/>
+      <c r="M111" s="60"/>
+      <c r="N111" s="60"/>
+      <c r="O111" s="60"/>
+      <c r="P111" s="60"/>
+      <c r="Q111" s="61"/>
     </row>
     <row r="112" spans="3:17" ht="44" customHeight="1">
-      <c r="K112" s="55"/>
-      <c r="L112" s="56"/>
-      <c r="M112" s="56"/>
-      <c r="N112" s="56"/>
-      <c r="O112" s="56"/>
-      <c r="P112" s="56"/>
-      <c r="Q112" s="57"/>
+      <c r="K112" s="62"/>
+      <c r="L112" s="63"/>
+      <c r="M112" s="63"/>
+      <c r="N112" s="63"/>
+      <c r="O112" s="63"/>
+      <c r="P112" s="63"/>
+      <c r="Q112" s="64"/>
     </row>
     <row r="114" spans="11:17" ht="46" customHeight="1">
-      <c r="K114" s="58" t="s">
+      <c r="K114" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="L114" s="53"/>
-      <c r="M114" s="53"/>
-      <c r="N114" s="53"/>
-      <c r="O114" s="53"/>
-      <c r="P114" s="53"/>
-      <c r="Q114" s="54"/>
+      <c r="L114" s="60"/>
+      <c r="M114" s="60"/>
+      <c r="N114" s="60"/>
+      <c r="O114" s="60"/>
+      <c r="P114" s="60"/>
+      <c r="Q114" s="61"/>
     </row>
     <row r="115" spans="11:17" ht="46" customHeight="1">
-      <c r="K115" s="55"/>
-      <c r="L115" s="56"/>
-      <c r="M115" s="56"/>
-      <c r="N115" s="56"/>
-      <c r="O115" s="56"/>
-      <c r="P115" s="56"/>
-      <c r="Q115" s="57"/>
+      <c r="K115" s="62"/>
+      <c r="L115" s="63"/>
+      <c r="M115" s="63"/>
+      <c r="N115" s="63"/>
+      <c r="O115" s="63"/>
+      <c r="P115" s="63"/>
+      <c r="Q115" s="64"/>
     </row>
     <row r="117" spans="11:17" ht="51" customHeight="1">
-      <c r="K117" s="52" t="s">
+      <c r="K117" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="L117" s="53"/>
-      <c r="M117" s="53"/>
-      <c r="N117" s="53"/>
-      <c r="O117" s="53"/>
-      <c r="P117" s="53"/>
-      <c r="Q117" s="54"/>
+      <c r="L117" s="60"/>
+      <c r="M117" s="60"/>
+      <c r="N117" s="60"/>
+      <c r="O117" s="60"/>
+      <c r="P117" s="60"/>
+      <c r="Q117" s="61"/>
     </row>
     <row r="118" spans="11:17" ht="51" customHeight="1">
-      <c r="K118" s="55"/>
-      <c r="L118" s="56"/>
-      <c r="M118" s="56"/>
-      <c r="N118" s="56"/>
-      <c r="O118" s="56"/>
-      <c r="P118" s="56"/>
-      <c r="Q118" s="57"/>
+      <c r="K118" s="62"/>
+      <c r="L118" s="63"/>
+      <c r="M118" s="63"/>
+      <c r="N118" s="63"/>
+      <c r="O118" s="63"/>
+      <c r="P118" s="63"/>
+      <c r="Q118" s="64"/>
     </row>
     <row r="120" spans="11:17" ht="47" customHeight="1">
-      <c r="K120" s="58" t="s">
+      <c r="K120" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="L120" s="53"/>
-      <c r="M120" s="53"/>
-      <c r="N120" s="53"/>
-      <c r="O120" s="53"/>
-      <c r="P120" s="53"/>
-      <c r="Q120" s="54"/>
+      <c r="L120" s="60"/>
+      <c r="M120" s="60"/>
+      <c r="N120" s="60"/>
+      <c r="O120" s="60"/>
+      <c r="P120" s="60"/>
+      <c r="Q120" s="61"/>
     </row>
     <row r="121" spans="11:17" ht="47" customHeight="1">
-      <c r="K121" s="55"/>
-      <c r="L121" s="56"/>
-      <c r="M121" s="56"/>
-      <c r="N121" s="56"/>
-      <c r="O121" s="56"/>
-      <c r="P121" s="56"/>
-      <c r="Q121" s="57"/>
+      <c r="K121" s="62"/>
+      <c r="L121" s="63"/>
+      <c r="M121" s="63"/>
+      <c r="N121" s="63"/>
+      <c r="O121" s="63"/>
+      <c r="P121" s="63"/>
+      <c r="Q121" s="64"/>
     </row>
     <row r="123" spans="11:17" ht="42" customHeight="1">
-      <c r="K123" s="58" t="s">
+      <c r="K123" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="L123" s="53"/>
-      <c r="M123" s="53"/>
-      <c r="N123" s="53"/>
-      <c r="O123" s="53"/>
-      <c r="P123" s="53"/>
-      <c r="Q123" s="54"/>
+      <c r="L123" s="60"/>
+      <c r="M123" s="60"/>
+      <c r="N123" s="60"/>
+      <c r="O123" s="60"/>
+      <c r="P123" s="60"/>
+      <c r="Q123" s="61"/>
     </row>
     <row r="124" spans="11:17" ht="42" customHeight="1">
-      <c r="K124" s="55"/>
-      <c r="L124" s="56"/>
-      <c r="M124" s="56"/>
-      <c r="N124" s="56"/>
-      <c r="O124" s="56"/>
-      <c r="P124" s="56"/>
-      <c r="Q124" s="57"/>
+      <c r="K124" s="62"/>
+      <c r="L124" s="63"/>
+      <c r="M124" s="63"/>
+      <c r="N124" s="63"/>
+      <c r="O124" s="63"/>
+      <c r="P124" s="63"/>
+      <c r="Q124" s="64"/>
     </row>
     <row r="126" spans="11:17" ht="44" customHeight="1"/>
     <row r="127" spans="11:17" ht="44" customHeight="1"/>
@@ -5143,6 +5115,34 @@
     <row r="130" ht="49" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="K117:Q118"/>
+    <mergeCell ref="K120:Q121"/>
+    <mergeCell ref="K123:Q124"/>
+    <mergeCell ref="C102:I107"/>
+    <mergeCell ref="K105:Q106"/>
+    <mergeCell ref="K111:Q112"/>
+    <mergeCell ref="K102:Q103"/>
+    <mergeCell ref="K108:Q109"/>
+    <mergeCell ref="K114:Q115"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I45"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:I57"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I49"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:I61"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:I69"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I65"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I41"/>
     <mergeCell ref="C100:I100"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C14:I17"/>
@@ -5159,34 +5159,6 @@
     <mergeCell ref="C87:I90"/>
     <mergeCell ref="F28:I29"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I41"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:I61"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:I69"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I65"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I45"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:I57"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I49"/>
-    <mergeCell ref="K117:Q118"/>
-    <mergeCell ref="K120:Q121"/>
-    <mergeCell ref="K123:Q124"/>
-    <mergeCell ref="C102:I107"/>
-    <mergeCell ref="K105:Q106"/>
-    <mergeCell ref="K111:Q112"/>
-    <mergeCell ref="K102:Q103"/>
-    <mergeCell ref="K108:Q109"/>
-    <mergeCell ref="K114:Q115"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5202,7 +5174,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
